--- a/Python-flask/01. Flask/지우연.xlsx
+++ b/Python-flask/01. Flask/지우연.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\01. Flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9990BBB-6ED7-416A-AB98-C6B43771000D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A93BE6-0978-4253-A0C0-726B4618A49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3015" windowWidth="23055" windowHeight="11385" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
-  <si>
-    <t>Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다음 행선지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/seoul/park, /seoul/crime, /seoul/cctv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/seoul/crime</t>
   </si>
   <si>
@@ -259,6 +247,115 @@
   </si>
   <si>
     <t>/crawling/sandwich, /crawling/oilprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client → server parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server → html parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/seoul/park, /seoul/park_de/area, /seoul/crime, /seoul/cctv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market, kospi_code/kosdaq_code, learn, pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, park_list, dist_list, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct, name/dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/count</t>
+  </si>
+  <si>
+    <t>/area_ratio</t>
+  </si>
+  <si>
+    <t>/per_person</t>
+  </si>
+  <si>
+    <t>/seoul/park_de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, park_result/dist_result, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, option, option_dict, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_de.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_res.html, park_res_dist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data-analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaokey.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadapikey.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_res_dist.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -437,13 +534,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +608,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,445 +945,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="G4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D16" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>50</v>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G18" s="13" t="s">
-        <v>51</v>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G20" s="13" t="s">
-        <v>53</v>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="13" t="s">
-        <v>54</v>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="G23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>41</v>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
